--- a/sub-22ML/psych_RFT_RT_sub-22ML.xlsx
+++ b/sub-22ML/psych_RFT_RT_sub-22ML.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-22ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\sub-22ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5355FEE6-7024-497E-8285-C50CE75161D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8736326-356E-4C86-941F-1C3F3EA4EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RFT_RT_sub-22ML (2)" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,25 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'psych_RFT_RT_sub-22ML (2)'!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - psych_RFT_RT_sub-22ML" description="Connexion à la requête « psych_RFT_RT_sub-22ML » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - psych_RFT_RT_sub-22ML" description="Connexion à la requête « psych_RFT_RT_sub-22ML » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=psych_RFT_RT_sub-22ML;Extended Properties=&quot;&quot;" command="SELECT * FROM [psych_RFT_RT_sub-22ML]"/>
   </connection>
 </connections>
@@ -178,7 +190,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2228,15 +2240,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1101725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2265,7 +2277,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -2293,62 +2305,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="psych_RFT_RT_sub_22ML" displayName="psych_RFT_RT_sub_22ML" ref="A1:S15" tableType="queryTable" totalsRowCount="1" headerRowDxfId="39" dataDxfId="19">
-  <autoFilter ref="A1:S14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="psych_RFT_RT_sub_22ML" displayName="psych_RFT_RT_sub_22ML" ref="A1:S15" tableType="queryTable" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="38" totalsRowDxfId="18"/>
-    <tableColumn id="2" uniqueName="2" name="Cond_0 -7/-45" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="37" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Cond_0 -7/-45" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_0 -7/-45])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Cond_1 -4/-40" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="36" totalsRowDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Cond_1 -4/-40" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_1 -4/-40])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="Cond_2 -2/-35" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="35" totalsRowDxfId="15">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Cond_2 -2/-35" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_2 -2/-35])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" uniqueName="5" name="Cond_3 -1/-30" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="34" totalsRowDxfId="14">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Cond_3 -1/-30" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_3 -1/-30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="Cond_4 0/-25" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="33" totalsRowDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Cond_4 0/-25" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_4 0/-25])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="Cond_5 1/-20" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="32" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Cond_5 1/-20" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_5 1/-20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" uniqueName="8" name="Cond_6 2/-15" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="31" totalsRowDxfId="11">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cond_6 2/-15" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_6 2/-15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" uniqueName="9" name="Cond_7 4/-10" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="30" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Cond_7 4/-10" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_7 4/-10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" uniqueName="10" name="Cond_8 7/-5" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="29" totalsRowDxfId="9">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Cond_8 7/-5" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_8 7/-5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" uniqueName="11" name="Cond_9 -7/0" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="28" totalsRowDxfId="8">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Cond_9 -7/0" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_9 -7/0])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" uniqueName="12" name="Cond_10 -4/5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="27" totalsRowDxfId="7">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Cond_10 -4/5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_10 -4/5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" uniqueName="13" name="Cond_11 -2/10" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="26" totalsRowDxfId="6">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Cond_11 -2/10" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_11 -2/10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" uniqueName="14" name="Cond_12 -1/15" totalsRowFunction="custom" queryTableFieldId="14" dataDxfId="25" totalsRowDxfId="5">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Cond_12 -1/15" totalsRowFunction="custom" queryTableFieldId="14" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_12 -1/15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" uniqueName="15" name="Cond_13 0/20" totalsRowFunction="custom" queryTableFieldId="15" dataDxfId="24" totalsRowDxfId="4">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Cond_13 0/20" totalsRowFunction="custom" queryTableFieldId="15" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_13 0/20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" uniqueName="16" name="Cond_14 1/25" totalsRowFunction="custom" queryTableFieldId="16" dataDxfId="23" totalsRowDxfId="3">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Cond_14 1/25" totalsRowFunction="custom" queryTableFieldId="16" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_14 1/25])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" uniqueName="17" name="Cond_15 2/30" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="22" totalsRowDxfId="2">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Cond_15 2/30" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_15 2/30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" uniqueName="18" name="Cond_16 4/35" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="21" totalsRowDxfId="1">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Cond_16 4/35" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_16 4/35])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" uniqueName="19" name="Cond_17 7/40" totalsRowFunction="custom" queryTableFieldId="19" dataDxfId="20" totalsRowDxfId="0">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Cond_17 7/40" totalsRowFunction="custom" queryTableFieldId="19" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_17 7/40])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2652,11 +2664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3588,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sub-22ML/psych_RFT_RT_sub-22ML.xlsx
+++ b/sub-22ML/psych_RFT_RT_sub-22ML.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Documents\GitHub\psych\sub-22ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-22ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8736326-356E-4C86-941F-1C3F3EA4EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{C8736326-356E-4C86-941F-1C3F3EA4EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E00FAF6F-E586-4DC7-BA2A-9FC18BC31C51}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Essai,Cond_0 -7/-45,Cond_1 -4/-40,Cond_2 -2/-35,Cond_3 -1/-30,Cond_4 0/-25,Cond_5 1/-20,Cond_6 2/-15,Cond_7 4/-10,Cond_8 7/-5,Cond_9 -7/0,Cond_10 -4/5,Cond_11 -2/10,Cond_12 -1/15,Cond_13 0/20,Cond_14 1/25,Cond_15 2/30,Cond_16 4/35,Cond_17 7/40</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>Moyenne</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>moyCV</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1284,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8671723153764519</c:v>
+                  <c:v>0.3666578749932034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,15 +2249,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>669925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:colOff>1165225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2308,59 +2317,59 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="psych_RFT_RT_sub_22ML" displayName="psych_RFT_RT_sub_22ML" ref="A1:S15" tableType="queryTable" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Cond_0 -7/-45" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="Moyenne" queryTableFieldId="1" dataDxfId="37" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Cond_0 -7/-45" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="36" totalsRowDxfId="17">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_0 -7/-45])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Cond_1 -4/-40" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Cond_1 -4/-40" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="35" totalsRowDxfId="16">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_1 -4/-40])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Cond_2 -2/-35" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Cond_2 -2/-35" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="34" totalsRowDxfId="15">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_2 -2/-35])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Cond_3 -1/-30" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Cond_3 -1/-30" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="33" totalsRowDxfId="14">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_3 -1/-30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Cond_4 0/-25" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Cond_4 0/-25" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="32" totalsRowDxfId="13">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_4 0/-25])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Cond_5 1/-20" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Cond_5 1/-20" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="31" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_5 1/-20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cond_6 2/-15" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cond_6 2/-15" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="30" totalsRowDxfId="11">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_6 2/-15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Cond_7 4/-10" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Cond_7 4/-10" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="29" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_7 4/-10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Cond_8 7/-5" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Cond_8 7/-5" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="28" totalsRowDxfId="9">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_8 7/-5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Cond_9 -7/0" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Cond_9 -7/0" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="27" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_9 -7/0])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Cond_10 -4/5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Cond_10 -4/5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="26" totalsRowDxfId="7">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_10 -4/5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Cond_11 -2/10" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Cond_11 -2/10" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="25" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_11 -2/10])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Cond_12 -1/15" totalsRowFunction="custom" queryTableFieldId="14" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Cond_12 -1/15" totalsRowFunction="custom" queryTableFieldId="14" dataDxfId="24" totalsRowDxfId="5">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_12 -1/15])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Cond_13 0/20" totalsRowFunction="custom" queryTableFieldId="15" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Cond_13 0/20" totalsRowFunction="custom" queryTableFieldId="15" dataDxfId="23" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_13 0/20])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Cond_14 1/25" totalsRowFunction="custom" queryTableFieldId="16" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Cond_14 1/25" totalsRowFunction="custom" queryTableFieldId="16" dataDxfId="22" totalsRowDxfId="3">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_14 1/25])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Cond_15 2/30" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Cond_15 2/30" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="21" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_15 2/30])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Cond_16 4/35" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Cond_16 4/35" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="20" totalsRowDxfId="1">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_16 4/35])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Cond_17 7/40" totalsRowFunction="custom" queryTableFieldId="19" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Cond_17 7/40" totalsRowFunction="custom" queryTableFieldId="19" dataDxfId="19" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(psych_RFT_RT_sub_22ML[Cond_17 7/40])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -2665,10 +2674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3010,9 +3019,7 @@
       <c r="L6" s="2">
         <v>0.35710080002900202</v>
       </c>
-      <c r="M6" s="2">
-        <v>6.8733455999754298</v>
-      </c>
+      <c r="M6" s="2"/>
       <c r="N6" s="2">
         <v>0.28267620003316501</v>
       </c>
@@ -3554,7 +3561,7 @@
       </c>
       <c r="M15" s="2">
         <f>AVERAGE(psych_RFT_RT_sub_22ML[Cond_11 -2/10])</f>
-        <v>0.8671723153764519</v>
+        <v>0.3666578749932034</v>
       </c>
       <c r="N15" s="2">
         <f>AVERAGE(psych_RFT_RT_sub_22ML[Cond_12 -1/15])</f>
@@ -3587,7 +3594,170 @@
       </c>
       <c r="B16" s="2">
         <f>AVERAGE(psych_RFT_RT_sub_22ML[[#Totals],[Cond_0 -7/-45]:[Cond_17 7/40]])</f>
-        <v>0.45921176239454059</v>
+        <v>0.43140540459547116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_0 -7/-45])</f>
+        <v>9.7865828467776833E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_1 -4/-40])</f>
+        <v>0.13059291265521397</v>
+      </c>
+      <c r="D17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_2 -2/-35])</f>
+        <v>0.1362559617206589</v>
+      </c>
+      <c r="E17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_3 -1/-30])</f>
+        <v>0.17102672858062418</v>
+      </c>
+      <c r="F17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_4 0/-25])</f>
+        <v>0.21431245434536883</v>
+      </c>
+      <c r="G17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_5 1/-20])</f>
+        <v>8.0112198826242612E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_6 2/-15])</f>
+        <v>7.6989542250301746E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_7 4/-10])</f>
+        <v>8.4927563829459332E-2</v>
+      </c>
+      <c r="J17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_8 7/-5])</f>
+        <v>6.4610731951663225E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_9 -7/0])</f>
+        <v>7.5815561230063527E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_10 -4/5])</f>
+        <v>0.10037398806988725</v>
+      </c>
+      <c r="M17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_11 -2/10])</f>
+        <v>9.5898461936184301E-2</v>
+      </c>
+      <c r="N17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_12 -1/15])</f>
+        <v>0.13108022941358488</v>
+      </c>
+      <c r="O17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_13 0/20])</f>
+        <v>0.25011455014249506</v>
+      </c>
+      <c r="P17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_14 1/25])</f>
+        <v>0.12924407880455499</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_15 2/30])</f>
+        <v>0.2609672869607072</v>
+      </c>
+      <c r="R17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_16 4/35])</f>
+        <v>0.12377120701922729</v>
+      </c>
+      <c r="S17" s="1">
+        <f>_xlfn.STDEV.P(psych_RFT_RT_sub_22ML[Cond_17 7/40])</f>
+        <v>0.10329419035454296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_0 -7/-45]]</f>
+        <v>0.2883926633665268</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_1 -4/-40]]</f>
+        <v>0.3201912501446334</v>
+      </c>
+      <c r="D18" s="1">
+        <f>D17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_2 -2/-35]]</f>
+        <v>0.30222964868968644</v>
+      </c>
+      <c r="E18" s="1">
+        <f>E17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_3 -1/-30]]</f>
+        <v>0.28963220290351394</v>
+      </c>
+      <c r="F18" s="1">
+        <f>F17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_4 0/-25]]</f>
+        <v>0.3284239491699949</v>
+      </c>
+      <c r="G18" s="1">
+        <f>G17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_5 1/-20]]</f>
+        <v>0.17994884527512492</v>
+      </c>
+      <c r="H18" s="1">
+        <f>H17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_6 2/-15]]</f>
+        <v>0.18326851092201479</v>
+      </c>
+      <c r="I18" s="1">
+        <f>I17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_7 4/-10]]</f>
+        <v>0.24947039032954874</v>
+      </c>
+      <c r="J18" s="1">
+        <f>J17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_8 7/-5]]</f>
+        <v>0.24677341541026371</v>
+      </c>
+      <c r="K18" s="1">
+        <f>K17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_9 -7/0]]</f>
+        <v>0.24406881982577824</v>
+      </c>
+      <c r="L18" s="1">
+        <f>L17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_10 -4/5]]</f>
+        <v>0.29821005541042128</v>
+      </c>
+      <c r="M18" s="1">
+        <f>M17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_11 -2/10]]</f>
+        <v>0.26154753102728784</v>
+      </c>
+      <c r="N18" s="1">
+        <f>N17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_12 -1/15]]</f>
+        <v>0.29791595604578719</v>
+      </c>
+      <c r="O18" s="1">
+        <f>O17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_13 0/20]]</f>
+        <v>0.43582500635514143</v>
+      </c>
+      <c r="P18" s="1">
+        <f>P17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_14 1/25]]</f>
+        <v>0.24756173113713728</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>Q17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_15 2/30]]</f>
+        <v>0.45562560603213936</v>
+      </c>
+      <c r="R18" s="1">
+        <f>R17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_16 4/35]]</f>
+        <v>0.31947391155620197</v>
+      </c>
+      <c r="S18" s="1">
+        <f>S17/psych_RFT_RT_sub_22ML[[#Totals],[Cond_17 7/40]]</f>
+        <v>0.29797301374171631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2">
+        <f>AVERAGE(B18:S18)</f>
+        <v>0.29147402818571766</v>
       </c>
     </row>
   </sheetData>
